--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/portal/RegisterValidateInviteFormat.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/portal/RegisterValidateInviteFormat.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12525" windowHeight="7275"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9690" windowHeight="2715"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,16 +90,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>random_unregister</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>invite</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>abc</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getUnregisterMobile()}</t>
+  </si>
+  <si>
+    <t>${RandomUtils.generateUserName()}</t>
   </si>
 </sst>
 </file>
@@ -452,7 +454,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -485,7 +487,7 @@
         <v>13</v>
       </c>
       <c r="H1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I1" t="s">
         <v>10</v>
@@ -499,10 +501,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -517,7 +519,7 @@
         <v>15</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I2" t="s">
         <v>12</v>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/portal/RegisterValidateInviteFormat.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/portal/RegisterValidateInviteFormat.xlsx
@@ -86,10 +86,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>注册成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>invite</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -102,6 +98,10 @@
   </si>
   <si>
     <t>${RandomUtils.generateUserName()}</t>
+  </si>
+  <si>
+    <t>校验邀请码格式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -453,8 +453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -487,7 +487,7 @@
         <v>13</v>
       </c>
       <c r="H1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I1" t="s">
         <v>10</v>
@@ -501,10 +501,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -519,13 +519,13 @@
         <v>15</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I2" t="s">
         <v>12</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/portal/RegisterValidateInviteFormat.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/portal/RegisterValidateInviteFormat.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9690" windowHeight="2715"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12750" windowHeight="7125"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,10 +58,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>check_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>result</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -71,18 +67,6 @@
   </si>
   <si>
     <t>yy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sms_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a1b0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0615</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -453,15 +437,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="12.625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="10.125" customWidth="1"/>
-    <col min="6" max="8" width="15.375" customWidth="1"/>
+    <col min="6" max="6" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -481,19 +465,13 @@
         <v>8</v>
       </c>
       <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
-        <v>13</v>
-      </c>
       <c r="H1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" t="s">
         <v>10</v>
-      </c>
-      <c r="J1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -501,10 +479,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -512,20 +490,14 @@
       <c r="E2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" t="s">
-        <v>20</v>
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/portal/RegisterValidateInviteFormat.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/portal/RegisterValidateInviteFormat.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12750" windowHeight="7125"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11745" windowHeight="5820"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -81,10 +81,11 @@
     <t>${UserInfoUtils.getUnregisterMobile()}</t>
   </si>
   <si>
-    <t>${RandomUtils.generateUserName()}</t>
-  </si>
-  <si>
     <t>校验邀请码格式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getUnUserdUserNname()}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -438,7 +439,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -482,7 +483,7 @@
         <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -497,7 +498,7 @@
         <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
